--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H2">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>0.3480677802213334</v>
+        <v>2.348773505111667</v>
       </c>
       <c r="R2">
-        <v>3.132610021992</v>
+        <v>21.138961546005</v>
       </c>
       <c r="S2">
-        <v>0.0005379204956176811</v>
+        <v>0.004515756471309893</v>
       </c>
       <c r="T2">
-        <v>0.0005379204956176812</v>
+        <v>0.004515756471309892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H3">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>23.50714248510134</v>
+        <v>40.12945715173656</v>
       </c>
       <c r="R3">
-        <v>211.564282365912</v>
+        <v>361.1651143656291</v>
       </c>
       <c r="S3">
-        <v>0.03632905558825447</v>
+        <v>0.07715297172278517</v>
       </c>
       <c r="T3">
-        <v>0.03632905558825448</v>
+        <v>0.07715297172278517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H4">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>13.71085173656</v>
+        <v>10.06390762763322</v>
       </c>
       <c r="R4">
-        <v>123.39766562904</v>
+        <v>90.57516864869901</v>
       </c>
       <c r="S4">
-        <v>0.021189402123865</v>
+        <v>0.01934888821644346</v>
       </c>
       <c r="T4">
-        <v>0.02118940212386501</v>
+        <v>0.01934888821644345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H5">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>0.07532659310933335</v>
+        <v>0.004947217278</v>
       </c>
       <c r="R5">
-        <v>0.6779393379840001</v>
+        <v>0.044524955502</v>
       </c>
       <c r="S5">
-        <v>0.0001164132982167952</v>
+        <v>9.511529481018433E-06</v>
       </c>
       <c r="T5">
-        <v>0.0001164132982167952</v>
+        <v>9.511529481018431E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.115299</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H6">
-        <v>0.345897</v>
+        <v>2.634301</v>
       </c>
       <c r="I6">
-        <v>0.01303961438295135</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J6">
-        <v>0.01303961438295135</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>0.078020488887</v>
+        <v>0.008496498825333335</v>
       </c>
       <c r="R6">
-        <v>0.702184399983</v>
+        <v>0.07646848942800001</v>
       </c>
       <c r="S6">
-        <v>0.0001205765728265374</v>
+        <v>1.63353850298783E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001205765728265374</v>
+        <v>1.63353850298783E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.345897</v>
       </c>
       <c r="I7">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J7">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>5.269200004257001</v>
+        <v>0.308405800665</v>
       </c>
       <c r="R7">
-        <v>47.42280003831301</v>
+        <v>2.775652205985</v>
       </c>
       <c r="S7">
-        <v>0.008143272198294927</v>
+        <v>0.0005929415872205484</v>
       </c>
       <c r="T7">
-        <v>0.008143272198294929</v>
+        <v>0.0005929415872205483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,10 +921,10 @@
         <v>0.345897</v>
       </c>
       <c r="I8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>3.07333058769</v>
+        <v>5.269200004257001</v>
       </c>
       <c r="R8">
-        <v>27.65997528921</v>
+        <v>47.42280003831301</v>
       </c>
       <c r="S8">
-        <v>0.004749671204487595</v>
+        <v>0.01013057409156973</v>
       </c>
       <c r="T8">
-        <v>0.004749671204487596</v>
+        <v>0.01013057409156973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,45 +983,45 @@
         <v>0.345897</v>
       </c>
       <c r="I9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>0.016884693024</v>
+        <v>1.321441800567</v>
       </c>
       <c r="R9">
-        <v>0.151962237216</v>
+        <v>11.892976205103</v>
       </c>
       <c r="S9">
-        <v>2.609440734229098E-05</v>
+        <v>0.002540606554605241</v>
       </c>
       <c r="T9">
-        <v>2.609440734229098E-05</v>
+        <v>0.002540606554605241</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>4.255346333333333</v>
+        <v>0.115299</v>
       </c>
       <c r="H10">
-        <v>12.766039</v>
+        <v>0.345897</v>
       </c>
       <c r="I10">
-        <v>0.4812537424658724</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J10">
-        <v>0.4812537424658724</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>2.879506338391222</v>
+        <v>0.000649594566</v>
       </c>
       <c r="R10">
-        <v>25.915557045521</v>
+        <v>0.005846351094</v>
       </c>
       <c r="S10">
-        <v>0.004450125994703385</v>
+        <v>1.248911765548369E-06</v>
       </c>
       <c r="T10">
-        <v>0.004450125994703386</v>
+        <v>1.248911765548368E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>4.255346333333333</v>
+        <v>0.115299</v>
       </c>
       <c r="H11">
-        <v>12.766039</v>
+        <v>0.345897</v>
       </c>
       <c r="I11">
-        <v>0.4812537424658724</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J11">
-        <v>0.4812537424658724</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>194.4706451722479</v>
+        <v>0.001115633124</v>
       </c>
       <c r="R11">
-        <v>1750.235806550231</v>
+        <v>0.010040698116</v>
       </c>
       <c r="S11">
-        <v>0.3005441806984414</v>
+        <v>2.144918396067805E-06</v>
       </c>
       <c r="T11">
-        <v>0.3005441806984414</v>
+        <v>2.144918396067805E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H12">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I12">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J12">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>113.4275756723633</v>
+        <v>9.417524295144998</v>
       </c>
       <c r="R12">
-        <v>1020.84818105127</v>
+        <v>84.75771865630499</v>
       </c>
       <c r="S12">
-        <v>0.1752963680912688</v>
+        <v>0.01810615037463875</v>
       </c>
       <c r="T12">
-        <v>0.1752963680912688</v>
+        <v>0.01810615037463875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,78 +1225,78 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H13">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I13">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J13">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>0.6231642646435555</v>
+        <v>160.9010561703743</v>
       </c>
       <c r="R13">
-        <v>5.608478381792</v>
+        <v>1448.109505533369</v>
       </c>
       <c r="S13">
-        <v>0.0009630676814588531</v>
+        <v>0.3093486809437679</v>
       </c>
       <c r="T13">
-        <v>0.0009630676814588533</v>
+        <v>0.3093486809437679</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1193406666666667</v>
+        <v>3.520787</v>
       </c>
       <c r="H14">
-        <v>0.358022</v>
+        <v>10.562361</v>
       </c>
       <c r="I14">
-        <v>0.01349670225706788</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J14">
-        <v>0.01349670225706788</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>0.08075540253977778</v>
+        <v>40.35173863340433</v>
       </c>
       <c r="R14">
-        <v>0.726798622858</v>
+        <v>363.1656477006389</v>
       </c>
       <c r="S14">
-        <v>0.0001248032384105748</v>
+        <v>0.07758033052818258</v>
       </c>
       <c r="T14">
-        <v>0.0001248032384105748</v>
+        <v>0.07758033052818257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1193406666666667</v>
+        <v>3.520787</v>
       </c>
       <c r="H15">
-        <v>0.358022</v>
+        <v>10.562361</v>
       </c>
       <c r="I15">
-        <v>0.01349670225706788</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J15">
-        <v>0.01349670225706788</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>5.453905422493111</v>
+        <v>0.019836113958</v>
       </c>
       <c r="R15">
-        <v>49.08514880243801</v>
+        <v>0.178525025622</v>
       </c>
       <c r="S15">
-        <v>0.008428724733021526</v>
+        <v>3.813695095612055E-05</v>
       </c>
       <c r="T15">
-        <v>0.008428724733021527</v>
+        <v>3.813695095612055E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1193406666666667</v>
+        <v>3.520787</v>
       </c>
       <c r="H16">
-        <v>0.358022</v>
+        <v>10.562361</v>
       </c>
       <c r="I16">
-        <v>0.01349670225706788</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J16">
-        <v>0.01349670225706788</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>3.181062465606666</v>
+        <v>0.034067135012</v>
       </c>
       <c r="R16">
-        <v>28.62956219046</v>
+        <v>0.306604215108</v>
       </c>
       <c r="S16">
-        <v>0.004916165170478662</v>
+        <v>6.549753948374556E-05</v>
       </c>
       <c r="T16">
-        <v>0.004916165170478663</v>
+        <v>6.549753948374555E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H17">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I17">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J17">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>0.01747656546844444</v>
+        <v>0.124112344</v>
       </c>
       <c r="R17">
-        <v>0.157289089216</v>
+        <v>1.117011096</v>
       </c>
       <c r="S17">
-        <v>2.700911515711816E-05</v>
+        <v>0.0002386186319658752</v>
       </c>
       <c r="T17">
-        <v>2.700911515711816E-05</v>
+        <v>0.0002386186319658752</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.07759</v>
+        <v>0.0464</v>
       </c>
       <c r="H18">
-        <v>3.23277</v>
+        <v>0.1392</v>
       </c>
       <c r="I18">
-        <v>0.1218688632418715</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J18">
-        <v>0.1218688632418715</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>0.7291832420033334</v>
+        <v>2.120494368533334</v>
       </c>
       <c r="R18">
-        <v>6.56264917803</v>
+        <v>19.0844493168</v>
       </c>
       <c r="S18">
-        <v>0.001126914449493477</v>
+        <v>0.004076866563012995</v>
       </c>
       <c r="T18">
-        <v>0.001126914449493478</v>
+        <v>0.004076866563012995</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.07759</v>
+        <v>0.0464</v>
       </c>
       <c r="H19">
-        <v>3.23277</v>
+        <v>0.1392</v>
       </c>
       <c r="I19">
-        <v>0.1218688632418715</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J19">
-        <v>0.1218688632418715</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,95 +1615,95 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>49.24619669370334</v>
+        <v>0.5317903845333333</v>
       </c>
       <c r="R19">
-        <v>443.21577024333</v>
+        <v>4.786113460799999</v>
       </c>
       <c r="S19">
-        <v>0.07610741366499822</v>
+        <v>0.001022421219036446</v>
       </c>
       <c r="T19">
-        <v>0.07610741366499824</v>
+        <v>0.001022421219036446</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.07759</v>
+        <v>0.0464</v>
       </c>
       <c r="H20">
-        <v>3.23277</v>
+        <v>0.1392</v>
       </c>
       <c r="I20">
-        <v>0.1218688632418715</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J20">
-        <v>0.1218688632418715</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>28.7234955029</v>
+        <v>0.0002614176</v>
       </c>
       <c r="R20">
-        <v>258.5114595260999</v>
+        <v>0.0023527584</v>
       </c>
       <c r="S20">
-        <v>0.04439065554119105</v>
+        <v>5.026019819898203E-07</v>
       </c>
       <c r="T20">
-        <v>0.04439065554119106</v>
+        <v>5.026019819898203E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.07759</v>
+        <v>0.0464</v>
       </c>
       <c r="H21">
-        <v>3.23277</v>
+        <v>0.1392</v>
       </c>
       <c r="I21">
-        <v>0.1218688632418715</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J21">
-        <v>0.1218688632418715</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>0.1578051531733334</v>
+        <v>0.0004489664</v>
       </c>
       <c r="R21">
-        <v>1.42024637856</v>
+        <v>0.0040406976</v>
       </c>
       <c r="S21">
-        <v>0.0002438795861887729</v>
+        <v>8.631836666193649E-07</v>
       </c>
       <c r="T21">
-        <v>0.000243879586188773</v>
+        <v>8.631836666193648E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.760257333333333</v>
+        <v>0.41099</v>
       </c>
       <c r="H22">
-        <v>8.280771999999999</v>
+        <v>1.23297</v>
       </c>
       <c r="I22">
-        <v>0.3121682861462829</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J22">
-        <v>0.3121682861462829</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>1.867810012234222</v>
+        <v>1.09933043665</v>
       </c>
       <c r="R22">
-        <v>16.810290110108</v>
+        <v>9.893973929849999</v>
       </c>
       <c r="S22">
-        <v>0.002886602393538978</v>
+        <v>0.0021135748179236</v>
       </c>
       <c r="T22">
-        <v>0.002886602393538978</v>
+        <v>0.0021135748179236</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.760257333333333</v>
+        <v>0.41099</v>
       </c>
       <c r="H23">
-        <v>8.280771999999999</v>
+        <v>1.23297</v>
       </c>
       <c r="I23">
-        <v>0.3121682861462829</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J23">
-        <v>0.3121682861462829</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>126.1446148930209</v>
+        <v>18.78237026990333</v>
       </c>
       <c r="R23">
-        <v>1135.301534037188</v>
+        <v>169.04133242913</v>
       </c>
       <c r="S23">
-        <v>0.1949498851045805</v>
+        <v>0.03611102130889463</v>
       </c>
       <c r="T23">
-        <v>0.1949498851045805</v>
+        <v>0.03611102130889463</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.760257333333333</v>
+        <v>0.41099</v>
       </c>
       <c r="H24">
-        <v>8.280771999999999</v>
+        <v>1.23297</v>
       </c>
       <c r="I24">
-        <v>0.3121682861462829</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J24">
-        <v>0.3121682861462829</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>73.57551489977332</v>
+        <v>4.710356253003333</v>
       </c>
       <c r="R24">
-        <v>662.1796340979598</v>
+        <v>42.39320627703</v>
       </c>
       <c r="S24">
-        <v>0.1137070987008478</v>
+        <v>0.00905614001749545</v>
       </c>
       <c r="T24">
-        <v>0.1137070987008478</v>
+        <v>0.009056140017495449</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.760257333333333</v>
+        <v>0.41099</v>
       </c>
       <c r="H25">
-        <v>8.280771999999999</v>
+        <v>1.23297</v>
       </c>
       <c r="I25">
-        <v>0.3121682861462829</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J25">
-        <v>0.3121682861462829</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>0.4042194445795555</v>
+        <v>0.00231551766</v>
       </c>
       <c r="R25">
-        <v>3.637975001216</v>
+        <v>0.02083965894</v>
       </c>
       <c r="S25">
-        <v>0.0006246999473156387</v>
+        <v>4.451818719353367E-06</v>
       </c>
       <c r="T25">
-        <v>0.000624699947315639</v>
+        <v>4.451818719353367E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.41099</v>
+      </c>
+      <c r="H26">
+        <v>1.23297</v>
+      </c>
+      <c r="I26">
+        <v>0.0472928336495663</v>
+      </c>
+      <c r="J26">
+        <v>0.0472928336495663</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>0.00397673924</v>
+      </c>
+      <c r="R26">
+        <v>0.03579065316</v>
+      </c>
+      <c r="S26">
+        <v>7.645686533273551E-06</v>
+      </c>
+      <c r="T26">
+        <v>7.64568653327355E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.718746666666667</v>
+      </c>
+      <c r="H27">
+        <v>11.15624</v>
+      </c>
+      <c r="I27">
+        <v>0.4279181184251341</v>
+      </c>
+      <c r="J27">
+        <v>0.4279181184251342</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.674835</v>
+      </c>
+      <c r="N27">
+        <v>8.024505</v>
+      </c>
+      <c r="O27">
+        <v>0.0446912281379651</v>
+      </c>
+      <c r="P27">
+        <v>0.04469122813796509</v>
+      </c>
+      <c r="Q27">
+        <v>9.947033740133334</v>
+      </c>
+      <c r="R27">
+        <v>89.5233036612</v>
+      </c>
+      <c r="S27">
+        <v>0.01912418625490643</v>
+      </c>
+      <c r="T27">
+        <v>0.01912418625490643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.718746666666667</v>
+      </c>
+      <c r="H28">
+        <v>11.15624</v>
+      </c>
+      <c r="I28">
+        <v>0.4279181184251341</v>
+      </c>
+      <c r="J28">
+        <v>0.4279181184251342</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N28">
+        <v>137.100929</v>
+      </c>
+      <c r="O28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="P28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="Q28">
+        <v>169.9478742385511</v>
+      </c>
+      <c r="R28">
+        <v>1529.53086814696</v>
+      </c>
+      <c r="S28">
+        <v>0.3267421108114087</v>
+      </c>
+      <c r="T28">
+        <v>0.3267421108114087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.718746666666667</v>
+      </c>
+      <c r="H29">
+        <v>11.15624</v>
+      </c>
+      <c r="I29">
+        <v>0.4279181184251341</v>
+      </c>
+      <c r="J29">
+        <v>0.4279181184251342</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.46099966666667</v>
+      </c>
+      <c r="N29">
+        <v>34.382999</v>
+      </c>
+      <c r="O29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="P29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="Q29">
+        <v>42.62055430708444</v>
+      </c>
+      <c r="R29">
+        <v>383.58498876376</v>
+      </c>
+      <c r="S29">
+        <v>0.08194235991855718</v>
+      </c>
+      <c r="T29">
+        <v>0.08194235991855718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.718746666666667</v>
+      </c>
+      <c r="H30">
+        <v>11.15624</v>
+      </c>
+      <c r="I30">
+        <v>0.4279181184251341</v>
+      </c>
+      <c r="J30">
+        <v>0.4279181184251342</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.005634</v>
+      </c>
+      <c r="N30">
+        <v>0.016902</v>
+      </c>
+      <c r="O30">
+        <v>9.413305094680434E-05</v>
+      </c>
+      <c r="P30">
+        <v>9.413305094680433E-05</v>
+      </c>
+      <c r="Q30">
+        <v>0.02095141872</v>
+      </c>
+      <c r="R30">
+        <v>0.18856276848</v>
+      </c>
+      <c r="S30">
+        <v>4.02812380427738E-05</v>
+      </c>
+      <c r="T30">
+        <v>4.02812380427738E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.718746666666667</v>
+      </c>
+      <c r="H31">
+        <v>11.15624</v>
+      </c>
+      <c r="I31">
+        <v>0.4279181184251341</v>
+      </c>
+      <c r="J31">
+        <v>0.4279181184251342</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.029028</v>
+      </c>
+      <c r="O31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q31">
+        <v>0.03598259274666667</v>
+      </c>
+      <c r="R31">
+        <v>0.32384333472</v>
+      </c>
+      <c r="S31">
+        <v>6.918020221900592E-05</v>
+      </c>
+      <c r="T31">
+        <v>6.918020221900592E-05</v>
       </c>
     </row>
   </sheetData>
